--- a/数据整理/stocks/A股/创业板/301239-普瑞眼科.xlsx
+++ b/数据整理/stocks/A股/创业板/301239-普瑞眼科.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>13</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -498,6 +515,1694 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1290</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4401</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4355</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4088</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3597</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016105</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信兴乐优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>54.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016106</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信兴乐优选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>54.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015630</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信乐融一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015631</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信乐融一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015171</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
